--- a/attachments/10.xlsx
+++ b/attachments/10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/FaniHealthCare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Fina-Health/attachments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A34578C-47F6-A441-9100-9DA9F204800D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A453C24-C724-D24E-9013-59571856A5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11300" yWindow="500" windowWidth="17120" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t xml:space="preserve"> Gloove </t>
   </si>
   <si>
-    <t>BI124</t>
-  </si>
-  <si>
     <t xml:space="preserve">6Cottons </t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>6g</t>
+  </si>
+  <si>
+    <t>BI125</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
   <dimension ref="A4:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1048,15 +1048,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>12</v>
